--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -1,40 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\japan office\py\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3D3691-4013-408B-8589-AA4C67E84552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Date</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +63,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,234 +388,2426 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A482"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A482"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="59.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>44928</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>44929</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>44930</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>44931</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>44932</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>44935</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>44936</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>44937</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>44938</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>44939</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>44942</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>44943</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>44944</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>44945</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>44946</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>44949</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>44950</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>44951</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>44952</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>44953</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>44956</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>44957</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>44958</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>44959</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>44960</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>44963</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>44964</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>44965</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>44966</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>44967</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>44970</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>44971</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>44972</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
         <v>44973</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
         <v>44974</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
         <v>44977</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
         <v>44978</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
         <v>44979</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
         <v>44980</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
         <v>44981</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
         <v>44984</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
         <v>44985</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>44989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>44991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>44996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>44997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>45003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>45004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>45010</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>45011</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>45013</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>45014</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>45018</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <v>45023</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>45025</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
+        <v>45027</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
+        <v>45028</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
+        <v>45030</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>45031</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>45032</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
+        <v>45035</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>45037</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="2">
+        <v>45038</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>45039</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>45045</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
+        <v>45046</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="2">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="2">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="2">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="2">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="2">
+        <v>45052</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="2">
+        <v>45053</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="2">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="2">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="2">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="2">
+        <v>45057</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="2">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="2">
+        <v>45059</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="2">
+        <v>45060</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" s="2">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" s="2">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" s="2">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" s="2">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" s="2">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" s="2">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" s="2">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" s="2">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" s="2">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" s="2">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="2">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="2">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="2">
+        <v>45073</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="2">
+        <v>45074</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="2">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="2">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="2">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="2">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="2">
+        <v>45080</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="2">
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="2">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="2">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="2">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="2">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="2">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="2">
+        <v>45087</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="2">
+        <v>45088</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="2">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="2">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="2">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" s="2">
+        <v>45092</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="2">
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="2">
+        <v>45094</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="2">
+        <v>45095</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="2">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="2">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="2">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="2">
+        <v>45099</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" s="2">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" s="2">
+        <v>45101</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" s="2">
+        <v>45102</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" s="2">
+        <v>45103</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" s="2">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" s="2">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" s="2">
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" s="2">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" s="2">
+        <v>45109</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" s="2">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" s="2">
+        <v>45111</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" s="2">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" s="2">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" s="2">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" s="2">
+        <v>45115</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" s="2">
+        <v>45116</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" s="2">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" s="2">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" s="2">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" s="2">
+        <v>45120</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" s="2">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" s="2">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" s="2">
+        <v>45123</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" s="2">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" s="2">
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" s="2">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" s="2">
+        <v>45127</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" s="2">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" s="2">
+        <v>45129</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" s="2">
+        <v>45130</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" s="2">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" s="2">
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" s="2">
+        <v>45133</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" s="2">
+        <v>45134</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" s="2">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" s="2">
+        <v>45136</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" s="2">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" s="2">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" s="2">
+        <v>45140</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" s="2">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" s="2">
+        <v>45142</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" s="2">
+        <v>45143</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" s="2">
+        <v>45144</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" s="2">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" s="2">
+        <v>45146</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" s="2">
+        <v>45147</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" s="2">
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" s="2">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" s="2">
+        <v>45150</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" s="2">
+        <v>45151</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" s="2">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211" s="2">
+        <v>45153</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212" s="2">
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213" s="2">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214" s="2">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215" s="2">
+        <v>45157</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216" s="2">
+        <v>45158</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217" s="2">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218" s="2">
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219" s="2">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220" s="2">
+        <v>45162</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221" s="2">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222" s="2">
+        <v>45164</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223" s="2">
+        <v>45165</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224" s="2">
+        <v>45166</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" s="2">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226" s="2">
+        <v>45168</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227" s="2">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" s="2">
+        <v>45171</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230" s="2">
+        <v>45172</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231" s="2">
+        <v>45173</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232" s="2">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233" s="2">
+        <v>45175</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234" s="2">
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235" s="2">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236" s="2">
+        <v>45178</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237" s="2">
+        <v>45179</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238" s="2">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239" s="2">
+        <v>45181</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240" s="2">
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241" s="2">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242" s="2">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243" s="2">
+        <v>45185</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244" s="2">
+        <v>45186</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245" s="2">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246" s="2">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247" s="2">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248" s="2">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249" s="2">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250" s="2">
+        <v>45192</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251" s="2">
+        <v>45193</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" s="2">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253" s="2">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254" s="2">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255" s="2">
+        <v>45197</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A256" s="2">
+        <v>45198</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" s="2">
+        <v>45199</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259" s="2">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260" s="2">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261" s="2">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262" s="2">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263" s="2">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A264" s="2">
+        <v>45206</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265" s="2">
+        <v>45207</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266" s="2">
+        <v>45208</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267" s="2">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268" s="2">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269" s="2">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A270" s="2">
+        <v>45212</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271" s="2">
+        <v>45213</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272" s="2">
+        <v>45214</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A273" s="2">
+        <v>45215</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A274" s="2">
+        <v>45216</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A275" s="2">
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A276" s="2">
+        <v>45218</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A277" s="2">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A278" s="2">
+        <v>45220</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A279" s="2">
+        <v>45221</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A280" s="2">
+        <v>45222</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A281" s="2">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A282" s="2">
+        <v>45224</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A283" s="2">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A284" s="2">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A285" s="2">
+        <v>45227</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A286" s="2">
+        <v>45228</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A287" s="2">
+        <v>45229</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A288" s="2">
+        <v>45230</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A289" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A290" s="2">
+        <v>45232</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A291" s="2">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A292" s="2">
+        <v>45234</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A293" s="2">
+        <v>45235</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A294" s="2">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A295" s="2">
+        <v>45237</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A296" s="2">
+        <v>45238</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A297" s="2">
+        <v>45239</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A298" s="2">
+        <v>45240</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A299" s="2">
+        <v>45241</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A300" s="2">
+        <v>45242</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A301" s="2">
+        <v>45243</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A302" s="2">
+        <v>45244</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A303" s="2">
+        <v>45245</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A304" s="2">
+        <v>45246</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A305" s="2">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A306" s="2">
+        <v>45248</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A307" s="2">
+        <v>45249</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A308" s="2">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A309" s="2">
+        <v>45251</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A310" s="2">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A311" s="2">
+        <v>45253</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A312" s="2">
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A313" s="2">
+        <v>45255</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A314" s="2">
+        <v>45256</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A315" s="2">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A316" s="2">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A317" s="2">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A318" s="2">
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A319" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A320" s="2">
+        <v>45262</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A321" s="2">
+        <v>45263</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A322" s="2">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A323" s="2">
+        <v>45265</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A324" s="2">
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A325" s="2">
+        <v>45267</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A326" s="2">
+        <v>45268</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A327" s="2">
+        <v>45269</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A328" s="2">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A329" s="2">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A330" s="2">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A331" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A332" s="2">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A333" s="2">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A334" s="2">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A335" s="2">
+        <v>45277</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A336" s="2">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A337" s="2">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A338" s="2">
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A339" s="2">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A340" s="2">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A341" s="2">
+        <v>45283</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A342" s="2">
+        <v>45284</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A343" s="2">
+        <v>45285</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A344" s="2">
+        <v>45286</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A345" s="2">
+        <v>45287</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A346" s="2">
+        <v>45288</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A347" s="2">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A348" s="2">
+        <v>45290</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A349" s="2">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A350" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A351" s="2">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A352" s="2">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A353" s="2">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A354" s="2">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A355" s="2">
+        <v>45297</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A356" s="2">
+        <v>45298</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A357" s="2">
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A358" s="2">
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A359" s="2">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A360" s="2">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A361" s="2">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A362" s="2">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A363" s="2">
+        <v>45305</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A364" s="2">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A365" s="2">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A366" s="2">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A367" s="2">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A368" s="2">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A369" s="2">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A370" s="2">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A371" s="2">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A372" s="2">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A373" s="2">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A374" s="2">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A375" s="2">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A376" s="2">
+        <v>45318</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A377" s="2">
+        <v>45319</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A378" s="2">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A379" s="2">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A380" s="2">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A381" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A382" s="2">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A383" s="2">
+        <v>45325</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A384" s="2">
+        <v>45326</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A385" s="2">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A386" s="2">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A387" s="2">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A388" s="2">
+        <v>45330</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A389" s="2">
+        <v>45331</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A390" s="2">
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A391" s="2">
+        <v>45333</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A392" s="2">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A393" s="2">
+        <v>45335</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A394" s="2">
+        <v>45336</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A395" s="2">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A396" s="2">
+        <v>45338</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A397" s="2">
+        <v>45339</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A398" s="2">
+        <v>45340</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A399" s="2">
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A400" s="2">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A401" s="2">
+        <v>45343</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A402" s="2">
+        <v>45344</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A403" s="2">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A404" s="2">
+        <v>45346</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A405" s="2">
+        <v>45347</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A406" s="2">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A407" s="2">
+        <v>45349</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A408" s="2">
+        <v>45350</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A409" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A410" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A411" s="2">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A412" s="2">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A413" s="2">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A414" s="2">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A415" s="2">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A416" s="2">
+        <v>45358</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A417" s="2">
+        <v>45359</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A418" s="2">
+        <v>45360</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A419" s="2">
+        <v>45361</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A420" s="2">
+        <v>45362</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A421" s="2">
+        <v>45363</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A422" s="2">
+        <v>45364</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A423" s="2">
+        <v>45365</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A424" s="2">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A425" s="2">
+        <v>45367</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A426" s="2">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A427" s="2">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A428" s="2">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A429" s="2">
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A430" s="2">
+        <v>45372</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A431" s="2">
+        <v>45373</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A432" s="2">
+        <v>45374</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A433" s="2">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A434" s="2">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A435" s="2">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A436" s="2">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A437" s="2">
+        <v>45379</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A438" s="2">
+        <v>45380</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A439" s="2">
+        <v>45381</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A440" s="2">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A441" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A442" s="2">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A443" s="2">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A444" s="2">
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A445" s="2">
+        <v>45387</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A446" s="2">
+        <v>45388</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A447" s="2">
+        <v>45389</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A448" s="2">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A449" s="2">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A450" s="2">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A451" s="2">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A452" s="2">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A453" s="2">
+        <v>45395</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A454" s="2">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A455" s="2">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A456" s="2">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A457" s="2">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A458" s="2">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A459" s="2">
+        <v>45401</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A460" s="2">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A461" s="2">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A462" s="2">
+        <v>45404</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A463" s="2">
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A464" s="2">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A465" s="2">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A466" s="2">
+        <v>45408</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A467" s="2">
+        <v>45409</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A468" s="2">
+        <v>45410</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A469" s="2">
+        <v>45411</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A470" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A471" s="2">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A472" s="2">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A473" s="2">
+        <v>45415</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A474" s="2">
+        <v>45416</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A475" s="2">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A476" s="2">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A477" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A478" s="2">
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A479" s="2">
+        <v>45421</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A480" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A481" s="2">
+        <v>45423</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A482" s="2">
+        <v>45424</v>
       </c>
     </row>
   </sheetData>
